--- a/week-1/Solutions/1-3-B-string-and-date-functions/string-date-warmup-solutions.xlsx
+++ b/week-1/Solutions/1-3-B-string-and-date-functions/string-date-warmup-solutions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-2\2-2-string-and-date-functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Setup\Documents\GitHub\data-analytics-lectures\week-1\Solutions\1-3-B-string-and-date-functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8906"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="formulas" sheetId="1" r:id="rId1"/>
@@ -1056,27 +1056,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.61328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.23046875" customWidth="1"/>
-    <col min="4" max="4" width="22.53515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.4609375" customWidth="1"/>
-    <col min="6" max="6" width="11.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.4609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.15234375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D2" s="4" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D3)</f>
         <v>=CONCATENATE(C3," ",B3)</v>
@@ -1128,7 +1128,7 @@
         <v>=YEARFRAC(H3,TODAY())</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7369</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f>PROPER(E3)</f>
+        <f t="shared" ref="F3:F17" si="0">PROPER(E3)</f>
         <v>Clerk</v>
       </c>
       <c r="G3">
@@ -1156,8 +1156,8 @@
         <v>29572</v>
       </c>
       <c r="I3" s="3">
-        <f ca="1">YEARFRAC(H3,TODAY())</f>
-        <v>38.788888888888891</v>
+        <f t="shared" ref="I3:I17" ca="1" si="1">YEARFRAC(H3,TODAY())</f>
+        <v>38.827777777777776</v>
       </c>
       <c r="J3">
         <v>800</v>
@@ -1166,7 +1166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7499</v>
       </c>
@@ -1177,14 +1177,14 @@
         <v>30</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" ref="D4:D17" si="0">CONCATENATE(C4," ",B4)</f>
+        <f t="shared" ref="D4:D17" si="2">CONCATENATE(C4," ",B4)</f>
         <v>Jennette Alberico</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f>PROPER(E4)</f>
+        <f t="shared" si="0"/>
         <v>Salesman</v>
       </c>
       <c r="G4">
@@ -1194,8 +1194,8 @@
         <v>29637</v>
       </c>
       <c r="I4" s="3">
-        <f ca="1">YEARFRAC(H4,TODAY())</f>
-        <v>38.613888888888887</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>38.652777777777779</v>
       </c>
       <c r="J4">
         <v>1600</v>
@@ -1204,7 +1204,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7521</v>
       </c>
@@ -1215,14 +1215,14 @@
         <v>31</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Mitchel Buchmann</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f>PROPER(E5)</f>
+        <f t="shared" si="0"/>
         <v>Salesman</v>
       </c>
       <c r="G5">
@@ -1232,8 +1232,8 @@
         <v>29639</v>
       </c>
       <c r="I5" s="3">
-        <f ca="1">YEARFRAC(H5,TODAY())</f>
-        <v>38.608333333333334</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>38.647222222222226</v>
       </c>
       <c r="J5">
         <v>1250</v>
@@ -1242,7 +1242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7566</v>
       </c>
@@ -1253,14 +1253,14 @@
         <v>32</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Ka Mathewson</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f>PROPER(E6)</f>
+        <f t="shared" si="0"/>
         <v>Manager</v>
       </c>
       <c r="G6">
@@ -1270,8 +1270,8 @@
         <v>29678</v>
       </c>
       <c r="I6" s="3">
-        <f ca="1">YEARFRAC(H6,TODAY())</f>
-        <v>38.49722222222222</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>38.536111111111111</v>
       </c>
       <c r="J6">
         <v>2975</v>
@@ -1280,7 +1280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7654</v>
       </c>
@@ -1291,14 +1291,14 @@
         <v>33</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Krystle Marinelli</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f>PROPER(E7)</f>
+        <f t="shared" si="0"/>
         <v>Salesman</v>
       </c>
       <c r="G7">
@@ -1308,8 +1308,8 @@
         <v>29857</v>
       </c>
       <c r="I7" s="3">
-        <f ca="1">YEARFRAC(H7,TODAY())</f>
-        <v>38.008333333333333</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>38.047222222222224</v>
       </c>
       <c r="J7">
         <v>1250</v>
@@ -1318,7 +1318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7698</v>
       </c>
@@ -1329,14 +1329,14 @@
         <v>34</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Carleen Towell</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f>PROPER(E8)</f>
+        <f t="shared" si="0"/>
         <v>Manager</v>
       </c>
       <c r="G8">
@@ -1346,8 +1346,8 @@
         <v>29707</v>
       </c>
       <c r="I8" s="3">
-        <f ca="1">YEARFRAC(H8,TODAY())</f>
-        <v>38.416666666666664</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>38.455555555555556</v>
       </c>
       <c r="J8">
         <v>2850</v>
@@ -1356,7 +1356,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7782</v>
       </c>
@@ -1367,14 +1367,14 @@
         <v>35</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Keshia Fiore</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f>PROPER(E9)</f>
+        <f t="shared" si="0"/>
         <v>Manager</v>
       </c>
       <c r="G9">
@@ -1384,8 +1384,8 @@
         <v>29746</v>
       </c>
       <c r="I9" s="3">
-        <f ca="1">YEARFRAC(H9,TODAY())</f>
-        <v>38.31111111111111</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>38.35</v>
       </c>
       <c r="J9">
         <v>2450</v>
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7788</v>
       </c>
@@ -1405,14 +1405,14 @@
         <v>36</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Janyce Spaulding</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f>PROPER(E10)</f>
+        <f t="shared" si="0"/>
         <v>Analyst</v>
       </c>
       <c r="G10">
@@ -1422,8 +1422,8 @@
         <v>30294</v>
       </c>
       <c r="I10" s="3">
-        <f ca="1">YEARFRAC(H10,TODAY())</f>
-        <v>36.81111111111111</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>36.85</v>
       </c>
       <c r="J10">
         <v>3000</v>
@@ -1432,7 +1432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7839</v>
       </c>
@@ -1443,14 +1443,14 @@
         <v>37</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Erma Ballentine</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="str">
-        <f>PROPER(E11)</f>
+        <f t="shared" si="0"/>
         <v>President</v>
       </c>
       <c r="G11" t="s">
@@ -1460,8 +1460,8 @@
         <v>29907</v>
       </c>
       <c r="I11" s="3">
-        <f ca="1">YEARFRAC(H11,TODAY())</f>
-        <v>37.87222222222222</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.911111111111111</v>
       </c>
       <c r="J11">
         <v>5000</v>
@@ -1470,7 +1470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7844</v>
       </c>
@@ -1481,14 +1481,14 @@
         <v>38</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Gertha Thoms</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2" t="str">
-        <f>PROPER(E12)</f>
+        <f t="shared" si="0"/>
         <v>Salesman</v>
       </c>
       <c r="G12">
@@ -1498,8 +1498,8 @@
         <v>29837</v>
       </c>
       <c r="I12" s="3">
-        <f ca="1">YEARFRAC(H12,TODAY())</f>
-        <v>38.06388888888889</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>38.102777777777774</v>
       </c>
       <c r="J12">
         <v>1500</v>
@@ -1508,7 +1508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7876</v>
       </c>
@@ -1519,14 +1519,14 @@
         <v>39</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Sheri Nierman</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="2" t="str">
-        <f>PROPER(E13)</f>
+        <f t="shared" si="0"/>
         <v>Clerk</v>
       </c>
       <c r="G13">
@@ -1536,8 +1536,8 @@
         <v>30328</v>
       </c>
       <c r="I13" s="3">
-        <f ca="1">YEARFRAC(H13,TODAY())</f>
-        <v>36.719444444444441</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>36.758333333333333</v>
       </c>
       <c r="J13">
         <v>1100</v>
@@ -1546,7 +1546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7900</v>
       </c>
@@ -1557,14 +1557,14 @@
         <v>40</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Lory Reis</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="2" t="str">
-        <f>PROPER(E14)</f>
+        <f t="shared" si="0"/>
         <v>Clerk</v>
       </c>
       <c r="G14">
@@ -1574,8 +1574,8 @@
         <v>29923</v>
       </c>
       <c r="I14" s="3">
-        <f ca="1">YEARFRAC(H14,TODAY())</f>
-        <v>37.827777777777776</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.866666666666667</v>
       </c>
       <c r="J14">
         <v>950</v>
@@ -1584,7 +1584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7902</v>
       </c>
@@ -1595,14 +1595,14 @@
         <v>41</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Thi Hendon</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="str">
-        <f>PROPER(E15)</f>
+        <f t="shared" si="0"/>
         <v>Analyst</v>
       </c>
       <c r="G15">
@@ -1612,8 +1612,8 @@
         <v>29923</v>
       </c>
       <c r="I15" s="3">
-        <f ca="1">YEARFRAC(H15,TODAY())</f>
-        <v>37.827777777777776</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.866666666666667</v>
       </c>
       <c r="J15">
         <v>3000</v>
@@ -1622,7 +1622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7934</v>
       </c>
@@ -1633,14 +1633,14 @@
         <v>42</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kelle Lococo</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="2" t="str">
-        <f>PROPER(E16)</f>
+        <f t="shared" si="0"/>
         <v>Clerk</v>
       </c>
       <c r="G16">
@@ -1650,8 +1650,8 @@
         <v>29974</v>
       </c>
       <c r="I16" s="3">
-        <f ca="1">YEARFRAC(H16,TODAY())</f>
-        <v>37.68888888888889</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.727777777777774</v>
       </c>
       <c r="J16">
         <v>1300</v>
@@ -1660,7 +1660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7694</v>
       </c>
@@ -1671,14 +1671,14 @@
         <v>43</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Nolan Manes</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f>PROPER(E17)</f>
+        <f t="shared" si="0"/>
         <v>Analyst</v>
       </c>
       <c r="G17">
@@ -1688,8 +1688,8 @@
         <v>29941</v>
       </c>
       <c r="I17" s="3">
-        <f ca="1">YEARFRAC(H17,TODAY())</f>
-        <v>37.777777777777779</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.81666666666667</v>
       </c>
       <c r="J17">
         <v>2900</v>
@@ -1708,24 +1708,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.69140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.53515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.53515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.4609375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.53515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.15234375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="8" customWidth="1"/>
     <col min="7" max="7" width="5" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>7369</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>7499</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>7521</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>7566</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>7654</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>7698</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7782</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7788</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>7839</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>7844</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>7876</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>7900</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>7902</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>7934</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>7694</v>
       </c>
